--- a/PublicTools/econfigs/items.xlsx
+++ b/PublicTools/econfigs/items.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="172">
   <si>
     <t>ItemData</t>
   </si>
@@ -487,6 +487,9 @@
     <t>上古披风</t>
   </si>
   <si>
+    <t>armors/Chest_67</t>
+  </si>
+  <si>
     <t>上古护碗</t>
   </si>
   <si>
@@ -548,12 +551,12 @@
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
@@ -837,7 +840,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -28874,7 +28877,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -28929,7 +28932,7 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -28984,16 +28987,16 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -29020,7 +29023,7 @@
       <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="4"/>
@@ -31098,8 +31101,8 @@
       <c r="G44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>144</v>
+      <c r="H44" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="I44" s="5">
         <v>4003.0</v>
@@ -31135,7 +31138,7 @@
         <v>4004.0</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D45" s="4">
         <v>1000.0</v>
@@ -31150,7 +31153,7 @@
         <v>150</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I45" s="5">
         <v>4004.0</v>
@@ -31186,7 +31189,7 @@
         <v>5001.0</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46" s="4">
         <v>5000.0</v>
@@ -31198,10 +31201,10 @@
         <v>5.0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I46" s="5">
         <v>5001.0</v>
@@ -31214,7 +31217,7 @@
         <v>1.0</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -31237,7 +31240,7 @@
         <v>5002.0</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D47" s="4">
         <v>5000.0</v>
@@ -31249,10 +31252,10 @@
         <v>5.0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I47" s="5">
         <v>5002.0</v>
@@ -31265,7 +31268,7 @@
         <v>1.0</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -31288,7 +31291,7 @@
         <v>5003.0</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D48" s="4">
         <v>5000.0</v>
@@ -31300,10 +31303,10 @@
         <v>5.0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I48" s="5">
         <v>5003.0</v>
@@ -31316,7 +31319,7 @@
         <v>1.0</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -31339,7 +31342,7 @@
         <v>5004.0</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D49" s="4">
         <v>5000.0</v>
@@ -31351,10 +31354,10 @@
         <v>5.0</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I49" s="5">
         <v>5004.0</v>
@@ -31367,7 +31370,7 @@
         <v>1.0</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -31390,7 +31393,7 @@
         <v>5005.0</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D50" s="4">
         <v>5000.0</v>
@@ -31402,10 +31405,10 @@
         <v>5.0</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I50" s="5">
         <v>5005.0</v>
@@ -31418,7 +31421,7 @@
         <v>1.0</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
